--- a/data/trans_dic/P20_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha empeorado la relación con sus convivientes</t>
+          <t>Población que ha empeorado la relación con sus convivientes (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>10,8%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,51; 23,72</t>
+          <t>11,39; 22,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,13; 17,55</t>
+          <t>5,65; 15,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,26; 28,52</t>
+          <t>16,31; 28,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 18,24</t>
+          <t>8,12; 18,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,88; 24,13</t>
+          <t>15,25; 23,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,79; 15,3</t>
+          <t>7,58; 14,81</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>14,82%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,76; 23,66</t>
+          <t>7,29; 22,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,61; 25,85</t>
+          <t>8,23; 27,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,27; 19,07</t>
+          <t>9,01; 18,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,02; 21,62</t>
+          <t>10,35; 20,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,55; 18,43</t>
+          <t>9,02; 17,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,85; 20,98</t>
+          <t>11,17; 21,87</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>12,77%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 12,36</t>
+          <t>5,01; 11,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,12; 25,42</t>
+          <t>7,71; 16,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,02; 22,44</t>
+          <t>13,71; 22,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,32; 18,34</t>
+          <t>10,49; 18,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,57; 16,44</t>
+          <t>9,96; 15,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,11; 19,77</t>
+          <t>10,12; 15,89</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>12,46%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 13,63</t>
+          <t>6,31; 12,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,29; 17,57</t>
+          <t>8,71; 16,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 13,98</t>
+          <t>7,31; 13,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,25; 17,28</t>
+          <t>9,09; 16,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,91; 12,83</t>
+          <t>7,56; 11,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,94; 15,61</t>
+          <t>9,77; 15,27</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>8,31%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,97; 7,22</t>
+          <t>1,71; 6,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,51; 11,85</t>
+          <t>4,27; 11,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,04; 13,1</t>
+          <t>2,9; 11,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,33; 15,11</t>
+          <t>5,89; 13,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 8,54</t>
+          <t>2,75; 7,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,39; 11,96</t>
+          <t>5,92; 10,98</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>8,73%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 18,24</t>
+          <t>3,86; 15,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,71; 18,21</t>
+          <t>7,23; 17,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,69; 8,37</t>
+          <t>2,3; 6,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,23; 15,08</t>
+          <t>3,14; 12,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,19; 11,34</t>
+          <t>3,58; 9,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,74; 14,02</t>
+          <t>6,0; 13,12</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>11,4%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,43; 12,81</t>
+          <t>7,63; 11,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,06; 15,16</t>
+          <t>9,58; 14,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,95; 14,56</t>
+          <t>9,95; 13,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,32; 14,08</t>
+          <t>9,91; 13,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,01; 12,74</t>
+          <t>9,32; 11,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,62; 13,83</t>
+          <t>10,08; 12,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha empeorado la relación con sus convivientes (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>85519</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>47223</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>100301</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>57658</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>185821</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>104881</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>58421; 117585</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>28390; 78837</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>75474; 129810</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>38043; 86905</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>148851; 226630</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>73583; 143828</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>67471</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>83763</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>66469</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>77284</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>133941</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>161047</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>41088; 125721</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>46910; 159070</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>46762; 95616</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>53461; 107959</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>97664; 188925</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>121379; 237649</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>52495</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>77195</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>120951</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>101406</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>173446</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>178601</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33871; 78607</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>52934; 112489</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>95190; 152994</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>74773; 131436</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>136452; 210913</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>141570; 222343</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>58458</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>80352</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>70842</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>85678</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>129299</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>166030</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>40302; 82451</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>56359; 108393</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>51404; 94421</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>62303; 115309</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>101449; 160513</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>130165; 203550</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>18158</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>36205</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>28312</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>47080</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>46471</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>83285</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8762; 32729</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>21129; 56692</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>14564; 58171</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>29859; 68089</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>27933; 76742</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>59380; 110096</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>40152</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>63134</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>29571</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>46720</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>69723</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>109854</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>21097; 85361</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>39069; 92387</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>16759; 50472</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>22506; 90388</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>45650; 116974</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>75487; 165028</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>322254</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>387872</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>416447</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>415826</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>738700</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>803698</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>263305; 390803</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>329551; 491009</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>359214; 475941</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>357727; 487772</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>658253; 835207</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>710634; 914652</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>